--- a/config_12.15/banner_style_ui.xlsx
+++ b/config_12.15/banner_style_ui.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.08\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.15\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="193">
   <si>
     <t>id|行号，从1开始，连续就行</t>
   </si>
@@ -896,6 +896,10 @@
   </si>
   <si>
     <t>双十二</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>冬至</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1095,7 +1099,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1239,6 +1243,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1592,11 +1599,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N87"/>
+  <dimension ref="A1:N88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A87" sqref="A87"/>
+      <selection pane="bottomLeft" activeCell="K88" sqref="K88:L88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4261,6 +4268,35 @@
         <v>1607961599</v>
       </c>
     </row>
+    <row r="88" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="23">
+        <v>87</v>
+      </c>
+      <c r="B88" s="23">
+        <v>87</v>
+      </c>
+      <c r="C88" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="E88" s="23">
+        <v>1</v>
+      </c>
+      <c r="F88" s="23">
+        <v>100</v>
+      </c>
+      <c r="H88" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="J88" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="K88" s="48">
+        <v>1607990400</v>
+      </c>
+      <c r="L88" s="43">
+        <v>1608566399</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4277,36 +4313,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="5" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="5"/>
-  <pixelatorList sheetStid="6"/>
-  <pixelatorList sheetStid="7"/>
-</pixelators>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="5" master=""/>
-  <rangeList sheetStid="6" master=""/>
-  <rangeList sheetStid="7" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <commentList sheetStid="5">
     <comment s:ref="E1" rgbClr="FF0000">
@@ -4323,6 +4329,36 @@
 </comments>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="5" master=""/>
+  <rangeList sheetStid="6" master=""/>
+  <rangeList sheetStid="7" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="5"/>
+  <pixelatorList sheetStid="6"/>
+  <pixelatorList sheetStid="7"/>
+</pixelators>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="5" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
@@ -4330,13 +4366,13 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -4348,13 +4384,13 @@
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>